--- a/SPMLAssignment1/Data.xlsx
+++ b/SPMLAssignment1/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E655EE0-B9EF-43C6-9FF5-2F3786613B11}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8A0C2-23A7-4DCC-82F9-9093FC95D794}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,18 +52,6 @@
     <t>Graph = 5</t>
   </si>
   <si>
-    <t>Som</t>
-  </si>
-  <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
-    <t>Voorlopig totaal</t>
-  </si>
-  <si>
-    <t>Aantal</t>
-  </si>
-  <si>
     <t>All weights different</t>
   </si>
   <si>
@@ -74,6 +62,18 @@
   </si>
   <si>
     <t>8 V, 14 E</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>range in edge weights</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H28"/>
+  <dimension ref="A3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,18 +1694,18 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1716,6 +1716,38 @@
         <v>117</v>
       </c>
       <c r="G28">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>117</v>
+      </c>
+      <c r="C31">
+        <v>117</v>
+      </c>
+      <c r="E31">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>117</v>
       </c>
     </row>

--- a/SPMLAssignment1/Data.xlsx
+++ b/SPMLAssignment1/Data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8A0C2-23A7-4DCC-82F9-9093FC95D794}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39483A60-231F-45E2-8866-34C0F8883948}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>runtime change for increasing numbers of vertices </t>
   </si>
@@ -74,6 +75,39 @@
   </si>
   <si>
     <t>range in edge weights</t>
+  </si>
+  <si>
+    <t>Count2</t>
+  </si>
+  <si>
+    <t>Count1</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>V=4</t>
+  </si>
+  <si>
+    <t>V=6</t>
+  </si>
+  <si>
+    <t>V=7</t>
+  </si>
+  <si>
+    <t>V=8</t>
+  </si>
+  <si>
+    <t>V=9</t>
+  </si>
+  <si>
+    <t>V=10</t>
+  </si>
+  <si>
+    <t>V=5</t>
   </si>
 </sst>
 </file>
@@ -167,18 +201,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD345EB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -193,7 +233,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -230,7 +270,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -266,12 +306,76 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2047580927384077"/>
+                  <c:y val="-0.34239173228346459"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$5:$A$9</c:f>
+              <c:f>Blad1!$A$5:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -284,7 +388,7 @@
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -292,10 +396,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$5:$B$9</c:f>
+              <c:f>Blad1!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>126</c:v>
                 </c:pt>
@@ -308,7 +412,7 @@
                 <c:pt idx="3">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -372,13 +476,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$A$5:$A$9</c15:sqref>
+                          <c15:sqref>Blad1!$A$5:$A$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>8</c:v>
                       </c:pt>
@@ -391,7 +495,7 @@
                       <c:pt idx="3">
                         <c:v>5</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
@@ -402,13 +506,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$A$5:$A$9</c15:sqref>
+                          <c15:sqref>Blad1!$A$5:$A$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>8</c:v>
                       </c:pt>
@@ -421,7 +525,7 @@
                       <c:pt idx="3">
                         <c:v>5</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
@@ -479,7 +583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328339416"/>
@@ -538,7 +642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328336792"/>
@@ -555,6 +659,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28793810148731408"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.47134601924759395"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -580,7 +694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -610,7 +724,2086 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E252-4EE4-A55A-E9FDDA06DC3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484690416"/>
+        <c:axId val="484693368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484690416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484693368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484693368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484690416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7176071741032369E-2"/>
+                  <c:y val="-1.8935185185185208E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0560-49B9-88FB-643D2AC2DD67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484685824"/>
+        <c:axId val="484684840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484685824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484684840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484684840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484685824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count vs Edges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$43:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$43:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$48:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$48:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$51:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$51:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$60:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$60:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$83:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$83:$D$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="D345EB"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$68:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$68:$H$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-E38C-45BF-98A2-137FAF4E0EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485935344"/>
+        <c:axId val="485939936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485935344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485939936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485939936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485935344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -661,6 +2854,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1177,20 +3450,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1210,6 +4515,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4764DE-A642-4543-A2A6-6A20C577CF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155AAE1D-0F53-465A-B6A1-4884944E68E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1010E6-2CC4-4F9B-89C3-EB00F4C68C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1483,8 +4901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,17 +4955,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1755,4 +5169,1571 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEB4D0A-5E84-467A-A2AB-3955F201C858}">
+  <dimension ref="A4:H111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>450</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>800</v>
+      </c>
+      <c r="D8" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1250</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D10" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2450</v>
+      </c>
+      <c r="D11" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D12" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4050</v>
+      </c>
+      <c r="D13" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>14</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>17</v>
+      </c>
+      <c r="H62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>18</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>21</v>
+      </c>
+      <c r="H66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>17</v>
+      </c>
+      <c r="H76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>21</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>22</v>
+      </c>
+      <c r="H81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>23</v>
+      </c>
+      <c r="H82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>24</v>
+      </c>
+      <c r="H83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>26</v>
+      </c>
+      <c r="H85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>27</v>
+      </c>
+      <c r="H86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>28</v>
+      </c>
+      <c r="H87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>29</v>
+      </c>
+      <c r="H88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>31</v>
+      </c>
+      <c r="H90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>32</v>
+      </c>
+      <c r="H91">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>33</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>34</v>
+      </c>
+      <c r="H93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>35</v>
+      </c>
+      <c r="H94">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>36</v>
+      </c>
+      <c r="H95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>37</v>
+      </c>
+      <c r="H96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>38</v>
+      </c>
+      <c r="H97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>23</v>
+      </c>
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>39</v>
+      </c>
+      <c r="H98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>24</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>26</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>42</v>
+      </c>
+      <c r="H101">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>27</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>43</v>
+      </c>
+      <c r="H102">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>28</v>
+      </c>
+      <c r="D103">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>44</v>
+      </c>
+      <c r="H103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>45</v>
+      </c>
+      <c r="H104">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>31</v>
+      </c>
+      <c r="D106">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>32</v>
+      </c>
+      <c r="D107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>33</v>
+      </c>
+      <c r="D108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>34</v>
+      </c>
+      <c r="D109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>35</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>36</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SPMLAssignment1/Data.xlsx
+++ b/SPMLAssignment1/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39483A60-231F-45E2-8866-34C0F8883948}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0E537-9FC5-490D-8856-0CB00460502B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>runtime change for increasing numbers of vertices </t>
   </si>
@@ -83,12 +83,6 @@
     <t>Count1</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
     <t>V=4</t>
   </si>
   <si>
@@ -108,6 +102,27 @@
   </si>
   <si>
     <t>V=5</t>
+  </si>
+  <si>
+    <t>NrOfWeights</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>EXP2</t>
+  </si>
+  <si>
+    <t>EXP3</t>
+  </si>
+  <si>
+    <t>EXP1 but better</t>
+  </si>
+  <si>
+    <t>minWeight</t>
+  </si>
+  <si>
+    <t>WeightDif</t>
   </si>
 </sst>
 </file>
@@ -201,13 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2814,6 +2830,1381 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NrOfWeights</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$116:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$116:$E$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-895A-4F3C-A836-FBE0D724BE03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="486451808"/>
+        <c:axId val="486449512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="486451808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486449512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486449512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486451808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>minWeight vs Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$135:$J$143</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$135:$K$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1E5-4878-90E4-B4F002864757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510521088"/>
+        <c:axId val="510521744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510521088"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510521744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510521744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510521088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>WeightDif vs Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$150</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$151:$J$159</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$151:$K$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EE5-4E6E-9975-0B94E2FE6572}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485576752"/>
+        <c:axId val="485572816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485576752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485572816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485572816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485576752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2934,6 +4325,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4463,6 +5974,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4628,6 +7687,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD027F-A91B-421F-A09A-80F908338AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2651B5-634B-41C8-9A3C-0DB25BE9EF59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5B9B31-20F4-4A21-90AF-5B90EABA247E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5173,14 +8340,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEB4D0A-5E84-467A-A2AB-3955F201C858}">
-  <dimension ref="A4:H111"/>
+  <dimension ref="A3:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
+      <selection activeCell="Q148" sqref="Q148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -5302,6 +8477,11 @@
         <v>80</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -5394,22 +8574,15 @@
       <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -5420,13 +8593,13 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -5514,7 +8687,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -5580,7 +8753,7 @@
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -5748,7 +8921,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F59">
         <v>7</v>
@@ -5914,7 +9087,7 @@
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -6202,7 +9375,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -6729,6 +9902,1665 @@
       </c>
       <c r="D111">
         <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>50</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>50</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>100</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>100</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>7</v>
+      </c>
+      <c r="E122">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>8</v>
+      </c>
+      <c r="E123">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="D126">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>100</v>
+      </c>
+      <c r="D128">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+      <c r="D129">
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>50</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+      <c r="D134">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>81</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>6</v>
+      </c>
+      <c r="J134" t="s">
+        <v>32</v>
+      </c>
+      <c r="K134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>100</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>78</v>
+      </c>
+      <c r="H135">
+        <v>50</v>
+      </c>
+      <c r="I135">
+        <v>100</v>
+      </c>
+      <c r="J135" s="6">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <v>21</v>
+      </c>
+      <c r="E136">
+        <v>79</v>
+      </c>
+      <c r="H136">
+        <v>50</v>
+      </c>
+      <c r="I136">
+        <v>100</v>
+      </c>
+      <c r="J136" s="6">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>50</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>22</v>
+      </c>
+      <c r="E137">
+        <v>78</v>
+      </c>
+      <c r="H137">
+        <v>50</v>
+      </c>
+      <c r="I137">
+        <v>100</v>
+      </c>
+      <c r="J137" s="6">
+        <v>50</v>
+      </c>
+      <c r="K137">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>23</v>
+      </c>
+      <c r="E138">
+        <v>76</v>
+      </c>
+      <c r="H138">
+        <v>50</v>
+      </c>
+      <c r="I138">
+        <v>100</v>
+      </c>
+      <c r="J138" s="6">
+        <v>100</v>
+      </c>
+      <c r="K138">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>24</v>
+      </c>
+      <c r="E139">
+        <v>81</v>
+      </c>
+      <c r="H139">
+        <v>50</v>
+      </c>
+      <c r="I139">
+        <v>100</v>
+      </c>
+      <c r="J139" s="6">
+        <v>500</v>
+      </c>
+      <c r="K139">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>25</v>
+      </c>
+      <c r="E140">
+        <v>83</v>
+      </c>
+      <c r="H140">
+        <v>50</v>
+      </c>
+      <c r="I140">
+        <v>100</v>
+      </c>
+      <c r="J140" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K140">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>26</v>
+      </c>
+      <c r="E141">
+        <v>77</v>
+      </c>
+      <c r="H141">
+        <v>50</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K141">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>50</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <v>27</v>
+      </c>
+      <c r="E142">
+        <v>78</v>
+      </c>
+      <c r="H142">
+        <v>50</v>
+      </c>
+      <c r="I142">
+        <v>100</v>
+      </c>
+      <c r="J142" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K142">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>100</v>
+      </c>
+      <c r="D143">
+        <v>28</v>
+      </c>
+      <c r="E143">
+        <v>81</v>
+      </c>
+      <c r="H143">
+        <v>50</v>
+      </c>
+      <c r="I143">
+        <v>100</v>
+      </c>
+      <c r="J143" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K143">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+      <c r="D144">
+        <v>29</v>
+      </c>
+      <c r="E144">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>50</v>
+      </c>
+      <c r="C145">
+        <v>100</v>
+      </c>
+      <c r="D145">
+        <v>30</v>
+      </c>
+      <c r="E145">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <v>31</v>
+      </c>
+      <c r="E146">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>100</v>
+      </c>
+      <c r="D147">
+        <v>32</v>
+      </c>
+      <c r="E147">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="D148">
+        <v>33</v>
+      </c>
+      <c r="E148">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>34</v>
+      </c>
+      <c r="E149">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>35</v>
+      </c>
+      <c r="E150">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>6</v>
+      </c>
+      <c r="J150" t="s">
+        <v>33</v>
+      </c>
+      <c r="K150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="D151">
+        <v>36</v>
+      </c>
+      <c r="E151">
+        <v>83</v>
+      </c>
+      <c r="H151">
+        <v>50</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
+      <c r="J151" s="6">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>50</v>
+      </c>
+      <c r="C152">
+        <v>100</v>
+      </c>
+      <c r="D152">
+        <v>37</v>
+      </c>
+      <c r="E152">
+        <v>85</v>
+      </c>
+      <c r="H152">
+        <v>50</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152" s="6">
+        <v>10</v>
+      </c>
+      <c r="K152">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>50</v>
+      </c>
+      <c r="C153">
+        <v>100</v>
+      </c>
+      <c r="D153">
+        <v>38</v>
+      </c>
+      <c r="E153">
+        <v>81</v>
+      </c>
+      <c r="H153">
+        <v>50</v>
+      </c>
+      <c r="I153">
+        <v>100</v>
+      </c>
+      <c r="J153" s="6">
+        <v>50</v>
+      </c>
+      <c r="K153">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>100</v>
+      </c>
+      <c r="D154">
+        <v>39</v>
+      </c>
+      <c r="E154">
+        <v>75</v>
+      </c>
+      <c r="H154">
+        <v>50</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+      <c r="J154" s="6">
+        <v>100</v>
+      </c>
+      <c r="K154">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>100</v>
+      </c>
+      <c r="D155">
+        <v>40</v>
+      </c>
+      <c r="E155">
+        <v>85</v>
+      </c>
+      <c r="H155">
+        <v>50</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155" s="6">
+        <v>500</v>
+      </c>
+      <c r="K155">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>50</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>41</v>
+      </c>
+      <c r="E156">
+        <v>73</v>
+      </c>
+      <c r="H156">
+        <v>50</v>
+      </c>
+      <c r="I156">
+        <v>100</v>
+      </c>
+      <c r="J156" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K156">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>50</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>42</v>
+      </c>
+      <c r="E157">
+        <v>83</v>
+      </c>
+      <c r="H157">
+        <v>50</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+      <c r="J157" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K157">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>50</v>
+      </c>
+      <c r="C158">
+        <v>100</v>
+      </c>
+      <c r="D158">
+        <v>43</v>
+      </c>
+      <c r="E158">
+        <v>89</v>
+      </c>
+      <c r="H158">
+        <v>50</v>
+      </c>
+      <c r="I158">
+        <v>100</v>
+      </c>
+      <c r="J158" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K158">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>50</v>
+      </c>
+      <c r="C159">
+        <v>100</v>
+      </c>
+      <c r="D159">
+        <v>44</v>
+      </c>
+      <c r="E159">
+        <v>77</v>
+      </c>
+      <c r="H159">
+        <v>50</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K159">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>50</v>
+      </c>
+      <c r="C160">
+        <v>100</v>
+      </c>
+      <c r="D160">
+        <v>45</v>
+      </c>
+      <c r="E160">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>50</v>
+      </c>
+      <c r="C161">
+        <v>100</v>
+      </c>
+      <c r="D161">
+        <v>46</v>
+      </c>
+      <c r="E161">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+      <c r="D162">
+        <v>47</v>
+      </c>
+      <c r="E162">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
+        <v>48</v>
+      </c>
+      <c r="E163">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>50</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164">
+        <v>49</v>
+      </c>
+      <c r="E164">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="D165">
+        <v>50</v>
+      </c>
+      <c r="E165">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>50</v>
+      </c>
+      <c r="C166">
+        <v>100</v>
+      </c>
+      <c r="D166">
+        <v>51</v>
+      </c>
+      <c r="E166">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>50</v>
+      </c>
+      <c r="C167">
+        <v>100</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>50</v>
+      </c>
+      <c r="C168">
+        <v>100</v>
+      </c>
+      <c r="D168">
+        <v>53</v>
+      </c>
+      <c r="E168">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>50</v>
+      </c>
+      <c r="C169">
+        <v>100</v>
+      </c>
+      <c r="D169">
+        <v>54</v>
+      </c>
+      <c r="E169">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170">
+        <v>100</v>
+      </c>
+      <c r="D170">
+        <v>55</v>
+      </c>
+      <c r="E170">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>100</v>
+      </c>
+      <c r="D171">
+        <v>56</v>
+      </c>
+      <c r="E171">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>50</v>
+      </c>
+      <c r="C172">
+        <v>100</v>
+      </c>
+      <c r="D172">
+        <v>57</v>
+      </c>
+      <c r="E172">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>50</v>
+      </c>
+      <c r="C173">
+        <v>100</v>
+      </c>
+      <c r="D173">
+        <v>58</v>
+      </c>
+      <c r="E173">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+      <c r="D174">
+        <v>59</v>
+      </c>
+      <c r="E174">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>50</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="D175">
+        <v>60</v>
+      </c>
+      <c r="E175">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>50</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176">
+        <v>61</v>
+      </c>
+      <c r="E176">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>50</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+      <c r="D177">
+        <v>62</v>
+      </c>
+      <c r="E177">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>50</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178">
+        <v>63</v>
+      </c>
+      <c r="E178">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>50</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179">
+        <v>64</v>
+      </c>
+      <c r="E179">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>100</v>
+      </c>
+      <c r="D180">
+        <v>65</v>
+      </c>
+      <c r="E180">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>50</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181">
+        <v>66</v>
+      </c>
+      <c r="E181">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>50</v>
+      </c>
+      <c r="C182">
+        <v>100</v>
+      </c>
+      <c r="D182">
+        <v>67</v>
+      </c>
+      <c r="E182">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>50</v>
+      </c>
+      <c r="C183">
+        <v>100</v>
+      </c>
+      <c r="D183">
+        <v>68</v>
+      </c>
+      <c r="E183">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>50</v>
+      </c>
+      <c r="C184">
+        <v>100</v>
+      </c>
+      <c r="D184">
+        <v>69</v>
+      </c>
+      <c r="E184">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>50</v>
+      </c>
+      <c r="C185">
+        <v>100</v>
+      </c>
+      <c r="D185">
+        <v>70</v>
+      </c>
+      <c r="E185">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>50</v>
+      </c>
+      <c r="C186">
+        <v>100</v>
+      </c>
+      <c r="D186">
+        <v>71</v>
+      </c>
+      <c r="E186">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>50</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>72</v>
+      </c>
+      <c r="E187">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>50</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
+      </c>
+      <c r="D188">
+        <v>73</v>
+      </c>
+      <c r="E188">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>50</v>
+      </c>
+      <c r="C189">
+        <v>100</v>
+      </c>
+      <c r="D189">
+        <v>74</v>
+      </c>
+      <c r="E189">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>50</v>
+      </c>
+      <c r="C190">
+        <v>100</v>
+      </c>
+      <c r="D190">
+        <v>75</v>
+      </c>
+      <c r="E190">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>50</v>
+      </c>
+      <c r="C191">
+        <v>100</v>
+      </c>
+      <c r="D191">
+        <v>76</v>
+      </c>
+      <c r="E191">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>50</v>
+      </c>
+      <c r="C192">
+        <v>100</v>
+      </c>
+      <c r="D192">
+        <v>77</v>
+      </c>
+      <c r="E192">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>50</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <v>78</v>
+      </c>
+      <c r="E193">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>50</v>
+      </c>
+      <c r="C194">
+        <v>100</v>
+      </c>
+      <c r="D194">
+        <v>79</v>
+      </c>
+      <c r="E194">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>50</v>
+      </c>
+      <c r="C195">
+        <v>100</v>
+      </c>
+      <c r="D195">
+        <v>80</v>
+      </c>
+      <c r="E195">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>50</v>
+      </c>
+      <c r="C196">
+        <v>100</v>
+      </c>
+      <c r="D196">
+        <v>81</v>
+      </c>
+      <c r="E196">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>50</v>
+      </c>
+      <c r="C197">
+        <v>100</v>
+      </c>
+      <c r="D197">
+        <v>82</v>
+      </c>
+      <c r="E197">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>50</v>
+      </c>
+      <c r="C198">
+        <v>100</v>
+      </c>
+      <c r="D198">
+        <v>83</v>
+      </c>
+      <c r="E198">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>50</v>
+      </c>
+      <c r="C199">
+        <v>100</v>
+      </c>
+      <c r="D199">
+        <v>84</v>
+      </c>
+      <c r="E199">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>50</v>
+      </c>
+      <c r="C200">
+        <v>100</v>
+      </c>
+      <c r="D200">
+        <v>85</v>
+      </c>
+      <c r="E200">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>50</v>
+      </c>
+      <c r="C201">
+        <v>100</v>
+      </c>
+      <c r="D201">
+        <v>86</v>
+      </c>
+      <c r="E201">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>50</v>
+      </c>
+      <c r="C202">
+        <v>100</v>
+      </c>
+      <c r="D202">
+        <v>87</v>
+      </c>
+      <c r="E202">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>50</v>
+      </c>
+      <c r="C203">
+        <v>100</v>
+      </c>
+      <c r="D203">
+        <v>88</v>
+      </c>
+      <c r="E203">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>50</v>
+      </c>
+      <c r="C204">
+        <v>100</v>
+      </c>
+      <c r="D204">
+        <v>89</v>
+      </c>
+      <c r="E204">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>50</v>
+      </c>
+      <c r="C205">
+        <v>100</v>
+      </c>
+      <c r="D205">
+        <v>90</v>
+      </c>
+      <c r="E205">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>50</v>
+      </c>
+      <c r="C206">
+        <v>100</v>
+      </c>
+      <c r="D206">
+        <v>91</v>
+      </c>
+      <c r="E206">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>50</v>
+      </c>
+      <c r="C207">
+        <v>100</v>
+      </c>
+      <c r="D207">
+        <v>92</v>
+      </c>
+      <c r="E207">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>50</v>
+      </c>
+      <c r="C208">
+        <v>100</v>
+      </c>
+      <c r="D208">
+        <v>93</v>
+      </c>
+      <c r="E208">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>50</v>
+      </c>
+      <c r="C209">
+        <v>100</v>
+      </c>
+      <c r="D209">
+        <v>94</v>
+      </c>
+      <c r="E209">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>50</v>
+      </c>
+      <c r="C210">
+        <v>100</v>
+      </c>
+      <c r="D210">
+        <v>95</v>
+      </c>
+      <c r="E210">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>50</v>
+      </c>
+      <c r="C211">
+        <v>100</v>
+      </c>
+      <c r="D211">
+        <v>96</v>
+      </c>
+      <c r="E211">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>50</v>
+      </c>
+      <c r="C212">
+        <v>100</v>
+      </c>
+      <c r="D212">
+        <v>97</v>
+      </c>
+      <c r="E212">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>50</v>
+      </c>
+      <c r="C213">
+        <v>100</v>
+      </c>
+      <c r="D213">
+        <v>98</v>
+      </c>
+      <c r="E213">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>50</v>
+      </c>
+      <c r="C214">
+        <v>100</v>
+      </c>
+      <c r="D214">
+        <v>99</v>
+      </c>
+      <c r="E214">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>50</v>
+      </c>
+      <c r="C215">
+        <v>100</v>
+      </c>
+      <c r="D215">
+        <v>100</v>
+      </c>
+      <c r="E215">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
